--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mandeep.kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkStuff\MOSIP\githubrepos\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31FC3DB-6292-447C-846D-DB171C424CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>lang_code</t>
   </si>
@@ -96,57 +97,12 @@
   </si>
   <si>
     <t>SAM</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>الشمس</t>
-  </si>
-  <si>
-    <t>الثلاثاء</t>
-  </si>
-  <si>
-    <t>تزوج</t>
-  </si>
-  <si>
-    <t>خميس</t>
-  </si>
-  <si>
-    <t>الجمعة</t>
-  </si>
-  <si>
-    <t>جلس</t>
-  </si>
-  <si>
-    <t>الإثنين</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,17 +449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="1"/>
-    <col min="5" max="6" width="8.42578125" style="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,144 +767,39 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
